--- a/Analyzed/try2/data_2017.xlsx
+++ b/Analyzed/try2/data_2017.xlsx
@@ -541,13 +541,13 @@
         <v>1689.441</v>
       </c>
       <c r="L2">
-        <v>92.5</v>
+        <v>3237.5</v>
       </c>
       <c r="M2">
         <v>56.68648417039294</v>
       </c>
       <c r="N2">
-        <v>-40.82000000000001</v>
+        <v>-1183.78</v>
       </c>
       <c r="O2">
         <v>1070.01</v>
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Z2">
         <v>9</v>
@@ -632,13 +632,13 @@
         <v>2072.354</v>
       </c>
       <c r="L3">
-        <v>86.30000000000001</v>
+        <v>3020.5</v>
       </c>
       <c r="M3">
         <v>56.48450004663724</v>
       </c>
       <c r="N3">
-        <v>35.4</v>
+        <v>1026.6</v>
       </c>
       <c r="O3">
         <v>993.4400000000001</v>
@@ -671,10 +671,10 @@
         <v>4</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -723,13 +723,13 @@
         <v>1045.9</v>
       </c>
       <c r="L4">
-        <v>72.5</v>
+        <v>2537.5</v>
       </c>
       <c r="M4">
         <v>58.61178220960631</v>
       </c>
       <c r="N4">
-        <v>78.79000000000001</v>
+        <v>2284.91</v>
       </c>
       <c r="O4">
         <v>954.29</v>
@@ -774,7 +774,7 @@
         <v>2</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -814,13 +814,13 @@
         <v>1398.164</v>
       </c>
       <c r="L5">
-        <v>78.7</v>
+        <v>2754.5</v>
       </c>
       <c r="M5">
         <v>66.78741251855132</v>
       </c>
       <c r="N5">
-        <v>52.94</v>
+        <v>1535.26</v>
       </c>
       <c r="O5">
         <v>854.72</v>
@@ -856,7 +856,7 @@
         <v>1</v>
       </c>
       <c r="Z5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -905,13 +905,13 @@
         <v>1332.244</v>
       </c>
       <c r="L6">
-        <v>77.40000000000001</v>
+        <v>2709</v>
       </c>
       <c r="M6">
         <v>65.66634122075961</v>
       </c>
       <c r="N6">
-        <v>0.6099999999999938</v>
+        <v>17.68999999999982</v>
       </c>
       <c r="O6">
         <v>1018.41</v>
@@ -944,10 +944,10 @@
         <v>4</v>
       </c>
       <c r="Y6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA6">
         <v>1</v>
@@ -956,7 +956,7 @@
         <v>4</v>
       </c>
       <c r="AC6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -996,13 +996,13 @@
         <v>2959.409</v>
       </c>
       <c r="L7">
-        <v>71.8</v>
+        <v>2513</v>
       </c>
       <c r="M7">
         <v>75.68341567688776</v>
       </c>
       <c r="N7">
-        <v>71.85000000000001</v>
+        <v>2083.65</v>
       </c>
       <c r="O7">
         <v>1005.08</v>
@@ -1035,10 +1035,10 @@
         <v>2</v>
       </c>
       <c r="Y7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA7">
         <v>3</v>
@@ -1047,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="AC7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1087,13 +1087,13 @@
         <v>1670.481</v>
       </c>
       <c r="L8">
-        <v>73.8</v>
+        <v>2583</v>
       </c>
       <c r="M8">
         <v>68.44880824501233</v>
       </c>
       <c r="N8">
-        <v>8.319999999999993</v>
+        <v>241.2799999999998</v>
       </c>
       <c r="O8">
         <v>1232.27</v>
@@ -1126,10 +1126,10 @@
         <v>1</v>
       </c>
       <c r="Y8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <v>1</v>
@@ -1178,13 +1178,13 @@
         <v>1580.339</v>
       </c>
       <c r="L9">
-        <v>71.8</v>
+        <v>2513</v>
       </c>
       <c r="M9">
         <v>81.63041451650308</v>
       </c>
       <c r="N9">
-        <v>39.14000000000001</v>
+        <v>1135.06</v>
       </c>
       <c r="O9">
         <v>1098.28</v>
@@ -1217,10 +1217,10 @@
         <v>5</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA9">
         <v>1</v>
@@ -1269,13 +1269,13 @@
         <v>1269.955</v>
       </c>
       <c r="L10">
-        <v>75.8</v>
+        <v>2653</v>
       </c>
       <c r="M10">
         <v>70.90558387314994</v>
       </c>
       <c r="N10">
-        <v>32.13000000000001</v>
+        <v>931.7700000000002</v>
       </c>
       <c r="O10">
         <v>1127.23</v>
@@ -1308,7 +1308,7 @@
         <v>4</v>
       </c>
       <c r="Y10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z10">
         <v>3</v>
@@ -1360,13 +1360,13 @@
         <v>1232.63</v>
       </c>
       <c r="L11">
-        <v>72.5</v>
+        <v>2537.5</v>
       </c>
       <c r="M11">
         <v>67.05628420683495</v>
       </c>
       <c r="N11">
-        <v>12.23</v>
+        <v>354.67</v>
       </c>
       <c r="O11">
         <v>983.58</v>
@@ -1399,10 +1399,10 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -1411,7 +1411,7 @@
         <v>3</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
